--- a/inputs/tandem_params_new.xlsx
+++ b/inputs/tandem_params_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28F1C14-5BA6-4A79-A049-34B6CDAA9C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE86D5D-BB4C-4B0C-AB93-59D0B486C72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>fname</t>
   </si>
@@ -68,12 +68,6 @@
     <t>o</t>
   </si>
   <si>
-    <t>D:\Hamed\CND\PhD\Publication\Experiment\19AUG24_LOWAGGLOM_TANDEM</t>
-  </si>
-  <si>
-    <t>D:\Hamed\CND\PhD\Publication\Experiment\21AUG24_HIGHAGGLOM_TANDEM</t>
-  </si>
-  <si>
     <t>21AUG24_HIGHAGGLOM_TANDEM_30-Dec-2024_01-31-17</t>
   </si>
   <si>
@@ -125,19 +119,70 @@
     <t>h</t>
   </si>
   <si>
-    <t>D:\Hamed\CND\PhD\Publication\Experiment\20AUG24_LOWAGGLOM_TANDEM</t>
-  </si>
-  <si>
-    <t>D:\Hamed\CND\PhD\Publication\Experiment\20AUG24_HIGHAGGLOM_TANDEM</t>
-  </si>
-  <si>
-    <t>D:\Hamed\CND\PhD\Publication\Experiment\28AUG24_HIGHAGGLOM_TANDEM</t>
-  </si>
-  <si>
-    <t>D:\Hamed\CND\PhD\Publication\Experiment\26JUL24_LOWAGGLOM_TANDEM</t>
-  </si>
-  <si>
-    <t>D:\Hamed\CND\PhD\Publication\Experiment\30JUL24_HIGHAGGLOM_TANDEM</t>
+    <t>20AUG24_LOWAGGLOM_TANDEM_31-Dec-2024_23-56-24</t>
+  </si>
+  <si>
+    <t>D:\Hamed\CND\PhD\Publication\Experiment\Effective density\20AUG24_LOWAGGLOM_TANDEM</t>
+  </si>
+  <si>
+    <t>D:\Hamed\CND\PhD\Publication\Experiment\Effective density\21AUG24_HIGHAGGLOM_TANDEM</t>
+  </si>
+  <si>
+    <t>D:\Hamed\CND\PhD\Publication\Experiment\Effective density\19AUG24_LOWAGGLOM_TANDEM</t>
+  </si>
+  <si>
+    <t>D:\Hamed\CND\PhD\Publication\Experiment\Effective density\30JUL24_HIGHAGGLOM_TANDEM</t>
+  </si>
+  <si>
+    <t>D:\Hamed\CND\PhD\Publication\Experiment\Effective density\26JUL24_LOWAGGLOM_TANDEM</t>
+  </si>
+  <si>
+    <t>D:\Hamed\CND\PhD\Publication\Experiment\Effective density\20AUG24_HIGHAGGLOM_TANDEM</t>
+  </si>
+  <si>
+    <t>D:\Hamed\CND\PhD\Publication\Experiment\Effective density\28AUG24_HIGHAGGLOM_TANDEM</t>
+  </si>
+  <si>
+    <t>20AUG24_HIGHAGGLOM_TANDEM_02-Jan-2025_15-28-26</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>26 Jul. 24</t>
+  </si>
+  <si>
+    <t>30 Jul. 24</t>
+  </si>
+  <si>
+    <t>19 Aug. 24</t>
+  </si>
+  <si>
+    <t>21 Aug. 24</t>
+  </si>
+  <si>
+    <t>20 Aug. 24</t>
+  </si>
+  <si>
+    <t>28 Aug. 24</t>
+  </si>
+  <si>
+    <t>Low agglom.</t>
+  </si>
+  <si>
+    <t>High agglom.</t>
+  </si>
+  <si>
+    <t>28AUG24_HIGHAGGLOM_TANDEM_02-Jan-2025_20-23-55</t>
+  </si>
+  <si>
+    <t>condt</t>
+  </si>
+  <si>
+    <t>26JUL24_LOWAGGLOM_TANDEM_03-Jan-2025_15-08-54</t>
+  </si>
+  <si>
+    <t>30JUL24_HIGHAGGLOM_TANDEM_03-Jan-2025_17-02-49</t>
   </si>
 </sst>
 </file>
@@ -468,21 +513,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13789820-1DD8-4FD1-AC5F-644F6AE28AED}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="4"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -507,22 +554,28 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
+      <c r="B2" t="s">
+        <v>47</v>
       </c>
       <c r="C2" s="3">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>3</v>
@@ -533,17 +586,23 @@
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -557,19 +616,25 @@
       <c r="H3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>3</v>
@@ -580,19 +645,25 @@
       <c r="H4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>3</v>
@@ -603,17 +674,25 @@
       <c r="H5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>3</v>
@@ -624,17 +703,25 @@
       <c r="H6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>3</v>
@@ -645,17 +732,25 @@
       <c r="H7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>3</v>
@@ -666,30 +761,39 @@
       <c r="H8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="4"/>
       <c r="D11" s="2"/>
@@ -698,7 +802,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -706,7 +810,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -714,7 +818,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
